--- a/suppxls/Scen_demo_GAMScode_secondFile.xlsx
+++ b/suppxls/Scen_demo_GAMScode_secondFile.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\Demo_Adv_Veda\suppxls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\Demo_Adv_Veda\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6329654-AE06-4D85-BE17-CFC2E2A10910}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD22AA8-039D-4A1F-B1B4-F6E086BE8C3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>Attribute</t>
   </si>
@@ -76,45 +76,6 @@
     <t>Bottom of the scen DD file</t>
   </si>
   <si>
-    <t>$SETGLOBAL VAG_DEBUG 'NO'</t>
-  </si>
-  <si>
-    <t>$IF %VAG_DEBUG%=='NO' $GOTO VAG_NO_DEBUG</t>
-  </si>
-  <si>
-    <t>* The following code is activated when debugging is set</t>
-  </si>
-  <si>
-    <t>$ONLISTING</t>
-  </si>
-  <si>
-    <t>option limrow=9999999;</t>
-  </si>
-  <si>
-    <t>option solprint=on;</t>
-  </si>
-  <si>
-    <t>option lp=GAMSCHK;</t>
-  </si>
-  <si>
-    <t>$onecho&gt;&gt;cplex.opt</t>
-  </si>
-  <si>
-    <t>interactive yes</t>
-  </si>
-  <si>
-    <t>$offecho</t>
-  </si>
-  <si>
-    <t>$LABEL VAG_NO_DEBUG</t>
-  </si>
-  <si>
-    <t>*1</t>
-  </si>
-  <si>
-    <t>*2</t>
-  </si>
-  <si>
     <t>~TFM_INS</t>
   </si>
   <si>
@@ -137,12 +98,6 @@
   </si>
   <si>
     <t>*GAMS statement 3  sec file</t>
-  </si>
-  <si>
-    <t>* --&gt;&gt; Do you want debugging?  sec file</t>
-  </si>
-  <si>
-    <t>*3  sec file</t>
   </si>
 </sst>
 </file>
@@ -533,11 +488,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:H53"/>
+  <dimension ref="C3:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -554,7 +507,7 @@
   <sheetData>
     <row r="3" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.25">
@@ -568,7 +521,7 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
         <v>3</v>
@@ -582,7 +535,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -627,7 +580,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F8">
         <v>4</v>
@@ -644,7 +597,7 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -661,7 +614,7 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F10">
         <v>6</v>
@@ -692,7 +645,7 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F12">
         <v>8</v>
@@ -709,468 +662,10 @@
         <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F13">
         <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="E21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22">
-        <v>4</v>
-      </c>
-      <c r="E22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23">
-        <v>5</v>
-      </c>
-      <c r="E23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24">
-        <v>6</v>
-      </c>
-      <c r="E24" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25">
-        <v>7</v>
-      </c>
-      <c r="E25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26">
-        <v>8</v>
-      </c>
-      <c r="E26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27">
-        <v>9</v>
-      </c>
-      <c r="E27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28">
-        <v>10</v>
-      </c>
-      <c r="E28" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29">
-        <v>11</v>
-      </c>
-      <c r="E29" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30">
-        <v>12</v>
-      </c>
-      <c r="E30" t="s">
-        <v>25</v>
-      </c>
-      <c r="F30">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31">
-        <v>13</v>
-      </c>
-      <c r="E31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32">
-        <v>14</v>
-      </c>
-      <c r="E32" t="s">
-        <v>39</v>
-      </c>
-      <c r="F32">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33">
-        <v>15</v>
-      </c>
-      <c r="E33" t="s">
-        <v>27</v>
-      </c>
-      <c r="F33">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" t="s">
-        <v>1</v>
-      </c>
-      <c r="E38" t="s">
-        <v>2</v>
-      </c>
-      <c r="F38" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39" t="s">
-        <v>38</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40">
-        <v>2</v>
-      </c>
-      <c r="E40" t="s">
-        <v>17</v>
-      </c>
-      <c r="F40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41">
-        <v>3</v>
-      </c>
-      <c r="E41" t="s">
-        <v>28</v>
-      </c>
-      <c r="F41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42">
-        <v>4</v>
-      </c>
-      <c r="E42" t="s">
-        <v>18</v>
-      </c>
-      <c r="F42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43">
-        <v>5</v>
-      </c>
-      <c r="E43" t="s">
-        <v>29</v>
-      </c>
-      <c r="F43">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44">
-        <v>6</v>
-      </c>
-      <c r="E44" t="s">
-        <v>19</v>
-      </c>
-      <c r="F44">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C45" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45">
-        <v>7</v>
-      </c>
-      <c r="E45" t="s">
-        <v>20</v>
-      </c>
-      <c r="F45">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C46" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46">
-        <v>8</v>
-      </c>
-      <c r="E46" t="s">
-        <v>21</v>
-      </c>
-      <c r="F46">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C47" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47">
-        <v>9</v>
-      </c>
-      <c r="E47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F47">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48">
-        <v>10</v>
-      </c>
-      <c r="E48" t="s">
-        <v>23</v>
-      </c>
-      <c r="F48">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49">
-        <v>11</v>
-      </c>
-      <c r="E49" t="s">
-        <v>24</v>
-      </c>
-      <c r="F49">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50">
-        <v>12</v>
-      </c>
-      <c r="E50" t="s">
-        <v>25</v>
-      </c>
-      <c r="F50">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C51" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51">
-        <v>13</v>
-      </c>
-      <c r="E51" t="s">
-        <v>26</v>
-      </c>
-      <c r="F51">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52">
-        <v>14</v>
-      </c>
-      <c r="E52" t="s">
-        <v>39</v>
-      </c>
-      <c r="F52">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C53" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53">
-        <v>15</v>
-      </c>
-      <c r="E53" t="s">
-        <v>27</v>
-      </c>
-      <c r="F53">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
